--- a/data/hotels_by_city/Houston/Houston_shard_241.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_241.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d4605163-Reviews-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-North-Spring.h6201368.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,666 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r509700902-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>4605163</t>
+  </si>
+  <si>
+    <t>509700902</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>for the price - very good</t>
+  </si>
+  <si>
+    <t>considering we only paid $65 for one night I would say this room/hotel was above average. The staff was VERY nice, all of them. The hotel was EXTREMELY clean, smelled and looked clean. and the bed we slept in was SO comfortable. I was actually shocked. The only disappointment/complaint is the fact that i requested a room on the back side of the hotel, away from 45, (to avoid LOUD highway noise all night), and they were not able to accommodate, even though when i came in early the guy told me they were getting our room ready. Once we actually checked in he told me that they didnt have a room on the backside of the hotel available after all. Although we did hear the highway roaring all night long, i turned on the bathroom fan and that drowned out the noise a lot when the AC wasnt in throughout the night. Overall, i would stay here again if i needed a nice, clean, convenient, cheap place to stay for the night!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>considering we only paid $65 for one night I would say this room/hotel was above average. The staff was VERY nice, all of them. The hotel was EXTREMELY clean, smelled and looked clean. and the bed we slept in was SO comfortable. I was actually shocked. The only disappointment/complaint is the fact that i requested a room on the back side of the hotel, away from 45, (to avoid LOUD highway noise all night), and they were not able to accommodate, even though when i came in early the guy told me they were getting our room ready. Once we actually checked in he told me that they didnt have a room on the backside of the hotel available after all. Although we did hear the highway roaring all night long, i turned on the bathroom fan and that drowned out the noise a lot when the AC wasnt in throughout the night. Overall, i would stay here again if i needed a nice, clean, convenient, cheap place to stay for the night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r485879706-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>485879706</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>I would like to Thank the whole Staff of this Hotel very friendly and kind love people I've never seen another like this a very special Thank You to Holly, Jessica,and Arthur y'all are my number 1 Houston Hotel God Bless You All and Thanks again I would not stay anywhere else</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r482351011-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>482351011</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good hotel, but for the breakfast </t>
+  </si>
+  <si>
+    <t>Been here for a few days, rooms are large, WiFi fast, the gym OK. The hotel also has a micromarket where you can buy food, drinks and toiletry stuff. The only things I did not like much are the limited choice at breakfast, and that you don't have any place to eat at walking distance, which means you have to get the car and go up and down I45 to get some food. Traffic noise from the I45 is also a bit annoying  especially early in the morning, but I had a room facing it. May be those looking on the other side of the hotel are quiter</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r470374047-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>470374047</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Was assured upon check in that they had on site security. My car plus 10 others were broken into the first night. The onsite security did not notify us. We were notified of the break ins by the sheriffs department, making a random sweep of the parking lot. They have cameras but not in the parking lot. We were offered no apologies for anything. Will NOT stay at this hotel ever again. Poor service and VERY lacked security in what is known to law enforcement as a very bad corridor.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Was assured upon check in that they had on site security. My car plus 10 others were broken into the first night. The onsite security did not notify us. We were notified of the break ins by the sheriffs department, making a random sweep of the parking lot. They have cameras but not in the parking lot. We were offered no apologies for anything. Will NOT stay at this hotel ever again. Poor service and VERY lacked security in what is known to law enforcement as a very bad corridor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r436979359-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>436979359</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, a bit noisy because of the interstate</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights. I had a room that faced I-45. You can really hear the highway noise when standing outside, but inside the hotel it's more of a dull roar. The hotel room still looks new, even though I think the hotel has been around for a few years. Room came with Direct TV with hundreds of channels and HD-quality TV. There's also a refrigerator and microwave. Breakfast is free and fairly standard - there's a good selection - yogurt, fruit, eggs, cereal, etc. You'll need a car to get to the supermarket, restaurants, etc. Ramp to I-45 south is right next to the hotel. Oddly, I found that cell phone service was poor in the hotel even though it's next to the highway. I enjoyed my stay and would stay here again if the opportunity arose, but I would ask for a room facing away from the highway next time to perhaps minimize noise from the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights. I had a room that faced I-45. You can really hear the highway noise when standing outside, but inside the hotel it's more of a dull roar. The hotel room still looks new, even though I think the hotel has been around for a few years. Room came with Direct TV with hundreds of channels and HD-quality TV. There's also a refrigerator and microwave. Breakfast is free and fairly standard - there's a good selection - yogurt, fruit, eggs, cereal, etc. You'll need a car to get to the supermarket, restaurants, etc. Ramp to I-45 south is right next to the hotel. Oddly, I found that cell phone service was poor in the hotel even though it's next to the highway. I enjoyed my stay and would stay here again if the opportunity arose, but I would ask for a room facing away from the highway next time to perhaps minimize noise from the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r414063329-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>414063329</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Great, new hotel!</t>
+  </si>
+  <si>
+    <t>Awesome stay. Passing through for the night. Everyone is nice and welcoming. Breakfast is great. Rooms are nice and clean, comfortable beds. Looks new and modern.  We had a service animal, they were very accomodating for us. Thank you.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r363347766-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>363347766</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Convenient location for a one day stay</t>
+  </si>
+  <si>
+    <t>This Fairfield is located in Spring right off of highway 45, on the service road. Easy access on and off the freeway. It appears to be a newer hotel. Nice bright and clean lobby. Front desk service was short and sweet. Modern elevators, short hallways and the room was more than spacious. The bathroom was big and bright and clean. The bed was comfortable. There was also a sofa and desk with chair. Being on the backside of the hotel my view was the parking lot of the apartments behind. Lots of lights and the A/C blew really cold.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r362067830-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>362067830</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Just Disappointing</t>
+  </si>
+  <si>
+    <t>Tried to book 9+ rooms online for an extended stay. Found a decent rate online. Was told they said Marriott said I could use it. Never had this problem before and have usually been treated better or been accommodated at other Marriott brands. Simply got a message the rate was going up substantially -- no offer of middle ground OR hey if you can get ten rooms maybe we can talk. We are traveling to the area for a NCAA Championship event and hotels for non profit Universities and teams that a decent rate is difficult. Furthermore, it felt as though my status with Marriott was simply rejected. Don't waste your time if you want flexibility. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Tried to book 9+ rooms online for an extended stay. Found a decent rate online. Was told they said Marriott said I could use it. Never had this problem before and have usually been treated better or been accommodated at other Marriott brands. Simply got a message the rate was going up substantially -- no offer of middle ground OR hey if you can get ten rooms maybe we can talk. We are traveling to the area for a NCAA Championship event and hotels for non profit Universities and teams that a decent rate is difficult. Furthermore, it felt as though my status with Marriott was simply rejected. Don't waste your time if you want flexibility. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r360242900-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>360242900</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another Marriott Hotel monitoring HVAC </t>
+  </si>
+  <si>
+    <t>I am a Platinum customer at Marriott but I am getting tired to fight about their air conditioning being programed to turn off in the middle of the night or not having the constant fan option. This is my second night in this hotel this week. Last night I was surprised when I found out before going to sleep that the constant fan was not working. Since they don't have any maintenance personnel at night, I was promised that they were going to program the fan for the next night (today). Today the constant fan was running fine however, when I finally decided to turn down the air conditioning to sleep (since the room temp was 75 degrees) I was surprised to find out that I had the fan working but they defeated the air conditioning. So I had no other choice to put close on and change rooms at 11:00 PM. This is ridiculous!!!! Customers come to the hotels because they want to have a good night of sleep. I am so tired of fighting in 80% of the Marriott hotels about their HVAC that stop working or making noise in the middle of the night.Hilton nor Holliday Inn are not treating their guests like Marriott.  It is time to Marriott start listening to our guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>I am a Platinum customer at Marriott but I am getting tired to fight about their air conditioning being programed to turn off in the middle of the night or not having the constant fan option. This is my second night in this hotel this week. Last night I was surprised when I found out before going to sleep that the constant fan was not working. Since they don't have any maintenance personnel at night, I was promised that they were going to program the fan for the next night (today). Today the constant fan was running fine however, when I finally decided to turn down the air conditioning to sleep (since the room temp was 75 degrees) I was surprised to find out that I had the fan working but they defeated the air conditioning. So I had no other choice to put close on and change rooms at 11:00 PM. This is ridiculous!!!! Customers come to the hotels because they want to have a good night of sleep. I am so tired of fighting in 80% of the Marriott hotels about their HVAC that stop working or making noise in the middle of the night.Hilton nor Holliday Inn are not treating their guests like Marriott.  It is time to Marriott start listening to our guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r356037757-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>356037757</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Always Nice</t>
+  </si>
+  <si>
+    <t>Staff is attentive, friendly and professional, Uber is always close by, rooms are always clean and modern. Beds are extremely comfortable. The Market downstairs is packed with a variety of microwave friendly and dry snack options as well as anything you may have forgotten to pack. Gym even has a yoga mat available for use</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r351207864-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>351207864</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Reasonably Priced Hotel Close to The Woodlands</t>
+  </si>
+  <si>
+    <t>This was one of the nicest Fairfield Inns I have ever stayed at; very clean, bright interior. The hotel is a reasonably priced option if you need to conduct business at The Woodlands.  WiFi was fast and reliable. There are a number of food options close by.  The staff is very friendly. A shout out to Marshall. I hope the management knows what a find they have in him.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r350082787-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>350082787</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Enjoyable, fairly centrally located hotel with good amenities</t>
+  </si>
+  <si>
+    <t>This hotel is only within the delivery range of 4 or 5 restaurants from what I could tell, so for extended stays you might find yourself going out to eat and the roads get pretty crowded in Houston. However, you're right near the I45 (as implied by the address) so you can get pretty much anywhere in the city fairly easily.The hotel has excellent WiFi (good enough for streaming video!) and a decent sundry shop. Room came equipped with a nice fridge and microwave and was very comfortable. Nice bathroom and comfortable bed.Fairfield hotels are always very nice and I tend to prefer them so this one failed to disappoint. Plenty of free parking as well and very attentive staff. Definitely would stay here again if coming on business because it's a little cheaper than staying closer to the center of the city but you're still pretty centrally located for all intents and purposes.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is only within the delivery range of 4 or 5 restaurants from what I could tell, so for extended stays you might find yourself going out to eat and the roads get pretty crowded in Houston. However, you're right near the I45 (as implied by the address) so you can get pretty much anywhere in the city fairly easily.The hotel has excellent WiFi (good enough for streaming video!) and a decent sundry shop. Room came equipped with a nice fridge and microwave and was very comfortable. Nice bathroom and comfortable bed.Fairfield hotels are always very nice and I tend to prefer them so this one failed to disappoint. Plenty of free parking as well and very attentive staff. Definitely would stay here again if coming on business because it's a little cheaper than staying closer to the center of the city but you're still pretty centrally located for all intents and purposes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r323757935-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>323757935</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Beware</t>
+  </si>
+  <si>
+    <t>Found mushrooms growing out of the carpet in my room. Please see the pictures below. When I showed the lady working at the front desk, she actually asked if I wanted a different room. While finding me another room, she stopped and said she needed to help check in other guests and that I would have to wait. When I asked to speak to the manager, she informed me that would not be possible. In all my years of travel, I have never seen mushrooms growing out of the carpet. Stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, General Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Found mushrooms growing out of the carpet in my room. Please see the pictures below. When I showed the lady working at the front desk, she actually asked if I wanted a different room. While finding me another room, she stopped and said she needed to help check in other guests and that I would have to wait. When I asked to speak to the manager, she informed me that would not be possible. In all my years of travel, I have never seen mushrooms growing out of the carpet. Stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r296601746-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>296601746</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>One of the nicest Fairfields that i have stayed at!</t>
+  </si>
+  <si>
+    <t>One of the Nicest Fairfield that I have stayed at!  Front desk lady was VERY pleasant and efficient (even though she was busy).This hotel is really new and of course, in great shape!  No bad comments at all!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r295369804-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>295369804</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Short Term Stay</t>
+  </si>
+  <si>
+    <t>My daughter and I traveled to the Houston area because she had a job interview. I booked this hotel based on TripAdvisor reviews and it did not disappoint us. Our room was clean and well appointed. The beds were quite comfortable as well. The staff was friendly and helpful. I would definitely stay here again if the need arose.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r274500134-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>274500134</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Excellent choice</t>
+  </si>
+  <si>
+    <t>Just got back from visiting family in the woodlands. Stayed at this hotel with other family and we were extremely satisfied. Rooms were super clean and spacious. Staff was friendly and the breakfast was very good.  Convenient locationMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Just got back from visiting family in the woodlands. Stayed at this hotel with other family and we were extremely satisfied. Rooms were super clean and spacious. Staff was friendly and the breakfast was very good.  Convenient locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r264278557-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>264278557</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>The staff was awesome, the hotel itself was very clean and sofisticated. The rooms were huge and the breakfast buffet was a plus. I highly suggest staying here. We didn't get to see the pool but I'm sure it was just as fantasticMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Robert G, Front Office Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>The staff was awesome, the hotel itself was very clean and sofisticated. The rooms were huge and the breakfast buffet was a plus. I highly suggest staying here. We didn't get to see the pool but I'm sure it was just as fantasticMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r262881979-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>262881979</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel - not the best suite option</t>
+  </si>
+  <si>
+    <t>Our family 4 of us 3 year old and 5 year old spent a couple nights here.  We had a friend of ours with us and we thought we were getting a two bedroom suite but really it was a two bed suite with a small partition between the sleeper sofa and the beds.The bathroom and shower area are separated and non lockable doors.  The doors also have transparent frosted glass so when you get up to go to the bathroom at night it illuminated the whole room practically.  Looks great as far as design but not practical.The buffet style breakfast that's free is a little better than most continental breakfast.  There is a fridge in the rooms no freezer and a microwave and coffee maker.Staff is friendly and accommodating and allowed us to have a late night checkout.  They also have an exhaustive list of restaurants in the area if you ask for it at the front desk.I would stay here again just not with friends and my family due to the privacy issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Front Office Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Our family 4 of us 3 year old and 5 year old spent a couple nights here.  We had a friend of ours with us and we thought we were getting a two bedroom suite but really it was a two bed suite with a small partition between the sleeper sofa and the beds.The bathroom and shower area are separated and non lockable doors.  The doors also have transparent frosted glass so when you get up to go to the bathroom at night it illuminated the whole room practically.  Looks great as far as design but not practical.The buffet style breakfast that's free is a little better than most continental breakfast.  There is a fridge in the rooms no freezer and a microwave and coffee maker.Staff is friendly and accommodating and allowed us to have a late night checkout.  They also have an exhaustive list of restaurants in the area if you ask for it at the front desk.I would stay here again just not with friends and my family due to the privacy issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r248286276-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>248286276</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Nice but noisy</t>
+  </si>
+  <si>
+    <t>Very nice suites but next to apts that have people revving their engines in the middle of the night. Poorly insulated between floors, as it sounded like big foot was staying above us and a baby was crying down the hall... Too bad the noise was so bad because the facilities were so nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, General Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Very nice suites but next to apts that have people revving their engines in the middle of the night. Poorly insulated between floors, as it sounded like big foot was staying above us and a baby was crying down the hall... Too bad the noise was so bad because the facilities were so nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r248154966-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>248154966</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>LOVELY STAY</t>
+  </si>
+  <si>
+    <t>The stay was nice. The room was spacious and clean and quite for the most part. The doors are kind of heavy so if you sleep lightly you may hear some slamming throughout the stay. The service was great. Nice breakfast and breaksfast area. Only drawback is there is no resturant on site.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r246208852-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>246208852</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Very nice hotel in a convenient location</t>
+  </si>
+  <si>
+    <t>My mother &amp; I stayed here for one night. A relative used his points for the room so I can't compare quality to the price. We arrived early and they allowed us to check in. We had two queen beds. The room was just the right size and very clean. Many channels available on the TV. Our room faced I-45 so there was traffic noise except for late at night after it died down. It really didn't bother us tho. The other side faces apartments. We always had a good wifi signal. The breakfast was good/average--eggs, sausage, waffles, cereal, breads, yogurt, etc. The location is very convenient to The Woodlands--shopping, eating, and entertainment. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My mother &amp; I stayed here for one night. A relative used his points for the room so I can't compare quality to the price. We arrived early and they allowed us to check in. We had two queen beds. The room was just the right size and very clean. Many channels available on the TV. Our room faced I-45 so there was traffic noise except for late at night after it died down. It really didn't bother us tho. The other side faces apartments. We always had a good wifi signal. The breakfast was good/average--eggs, sausage, waffles, cereal, breads, yogurt, etc. The location is very convenient to The Woodlands--shopping, eating, and entertainment. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r232667605-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>232667605</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Houston area hotel</t>
+  </si>
+  <si>
+    <t>Easy to reach, just off the I-45 north. Wide parking lot. Very comfortable rooms, clean. Good and healthy breakfast available and included in the room price. Value fair. Would suggest the set up of a mini bar in the rooms.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r232300019-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>232300019</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Still has than brand new smell</t>
+  </si>
+  <si>
+    <t>If you have to be in Spring, stay here.  It is nice, new and everything is what you would expect.  The place is immaculate, modern and very functional.  Rooms are very nice.The only downside is the traffic is a pain.  But then again, you are in Spring.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r227433222-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>227433222</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Very Nice, New Hotel</t>
+  </si>
+  <si>
+    <t>We spent one night at the Fairfield.  Very clean and accommodating.  There are a lot of business customers.  The freeway side of the hotel picks up quite a bit of freeway noise.  The staff is very good and helpful.  Breakfast was good and had a good range of alternatives.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r216478370-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>216478370</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel but Paranoid Manager about Keeping Pool perfect and make it uncomfortable</t>
+  </si>
+  <si>
+    <t>The hotel is like brand new.  It looks really nice.  The staff are very nice and are jumping when you come through the door.  The rooms were quite and the mattrices were good.   Breakfast was standard frozen eggs and sausage microwaved, so we ate elsewhere.   The manager seems to have the new car syndrome, like when someone buys a new car they park way out so it will get no dents.   While I was checking in the person at the desk told me that the manager would only allow bottled water at the pool and he was a real stickler about that.   I'm in my mid 50's, so I"m far from being a party animal; however, I might like to drink a coke or a beer or two at the pool at night if I want to.  I can understand no bottles, but the bottled water is rediculous.  I then took a look at the pool.   There are two cranes to lift disabled people into the water.   I commend Farefield for helping out the disabled, but two cranes are a bit much.   I've never seen anyone use them before.  However, the wierd thing is again the Manager trying to make it perfect.  He had some canvas covers over both of them.   Other Fairfields leave them uncovered and it is no big deal.  The canvas covers were obnixious and made a big eye sore at the pool.   I guess the manager...The hotel is like brand new.  It looks really nice.  The staff are very nice and are jumping when you come through the door.  The rooms were quite and the mattrices were good.   Breakfast was standard frozen eggs and sausage microwaved, so we ate elsewhere.   The manager seems to have the new car syndrome, like when someone buys a new car they park way out so it will get no dents.   While I was checking in the person at the desk told me that the manager would only allow bottled water at the pool and he was a real stickler about that.   I'm in my mid 50's, so I"m far from being a party animal; however, I might like to drink a coke or a beer or two at the pool at night if I want to.  I can understand no bottles, but the bottled water is rediculous.  I then took a look at the pool.   There are two cranes to lift disabled people into the water.   I commend Farefield for helping out the disabled, but two cranes are a bit much.   I've never seen anyone use them before.  However, the wierd thing is again the Manager trying to make it perfect.  He had some canvas covers over both of them.   Other Fairfields leave them uncovered and it is no big deal.  The canvas covers were obnixious and made a big eye sore at the pool.   I guess the manager didn't want any rain or sun to touch his cranes.   Next, the pool has a  cosmetic small pool next to the main pool to give a small water fall.   It looks pretty nice, but there is an abnoxious sign next to it saying "KEEP OUT".   I doubt that anyone could get to it anyway, but it was so unfriendly it was totally wierd.   You are walking on egg shells around the pool.   The manager needs to tone it down and make the place friendly and get over the new car syndrom.  People are there to relax.  It's the Woodlands so I doubt there are a bunch of party animals trashing the hotel with drings and climbing where clearly where you should not be. .  Also,  I would not say it has a good location.   To get to decent restaurants you have to go a couple of exits north on I 45.   You can get get to the Woodlands mall from there and it is so busy it is a zoo.   There is really nothing what I would consider close to the hotel.   I has a lousy location.    When your tired you want someting close where you don't have to fight traffic to get to a restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>The hotel is like brand new.  It looks really nice.  The staff are very nice and are jumping when you come through the door.  The rooms were quite and the mattrices were good.   Breakfast was standard frozen eggs and sausage microwaved, so we ate elsewhere.   The manager seems to have the new car syndrome, like when someone buys a new car they park way out so it will get no dents.   While I was checking in the person at the desk told me that the manager would only allow bottled water at the pool and he was a real stickler about that.   I'm in my mid 50's, so I"m far from being a party animal; however, I might like to drink a coke or a beer or two at the pool at night if I want to.  I can understand no bottles, but the bottled water is rediculous.  I then took a look at the pool.   There are two cranes to lift disabled people into the water.   I commend Farefield for helping out the disabled, but two cranes are a bit much.   I've never seen anyone use them before.  However, the wierd thing is again the Manager trying to make it perfect.  He had some canvas covers over both of them.   Other Fairfields leave them uncovered and it is no big deal.  The canvas covers were obnixious and made a big eye sore at the pool.   I guess the manager...The hotel is like brand new.  It looks really nice.  The staff are very nice and are jumping when you come through the door.  The rooms were quite and the mattrices were good.   Breakfast was standard frozen eggs and sausage microwaved, so we ate elsewhere.   The manager seems to have the new car syndrome, like when someone buys a new car they park way out so it will get no dents.   While I was checking in the person at the desk told me that the manager would only allow bottled water at the pool and he was a real stickler about that.   I'm in my mid 50's, so I"m far from being a party animal; however, I might like to drink a coke or a beer or two at the pool at night if I want to.  I can understand no bottles, but the bottled water is rediculous.  I then took a look at the pool.   There are two cranes to lift disabled people into the water.   I commend Farefield for helping out the disabled, but two cranes are a bit much.   I've never seen anyone use them before.  However, the wierd thing is again the Manager trying to make it perfect.  He had some canvas covers over both of them.   Other Fairfields leave them uncovered and it is no big deal.  The canvas covers were obnixious and made a big eye sore at the pool.   I guess the manager didn't want any rain or sun to touch his cranes.   Next, the pool has a  cosmetic small pool next to the main pool to give a small water fall.   It looks pretty nice, but there is an abnoxious sign next to it saying "KEEP OUT".   I doubt that anyone could get to it anyway, but it was so unfriendly it was totally wierd.   You are walking on egg shells around the pool.   The manager needs to tone it down and make the place friendly and get over the new car syndrom.  People are there to relax.  It's the Woodlands so I doubt there are a bunch of party animals trashing the hotel with drings and climbing where clearly where you should not be. .  Also,  I would not say it has a good location.   To get to decent restaurants you have to go a couple of exits north on I 45.   You can get get to the Woodlands mall from there and it is so busy it is a zoo.   There is really nothing what I would consider close to the hotel.   I has a lousy location.    When your tired you want someting close where you don't have to fight traffic to get to a restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r216150321-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>216150321</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>Extra nice Fairfield Inn</t>
+  </si>
+  <si>
+    <t>We usually stay away from Fairfield Inn's because they tend to look as cheap as they cost, but not this one! It is aesthetically pleasing, the hotel staff members (including managers) are very friendly, the location is convenient, the rooms are spacious, and the pool is small, but nice. We did have a couple mediocre housekeeping visit during our 4 day visit, but we also had 1 day where the housekeeper did a really nice job. Overall, this hotel is excellent, and we highly recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r215874376-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>215874376</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Friendly and Helpful Staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two occasions both for business reasons.  The staff are welcoming and friendly.The hotel is on the I-45 so it is close to a lot of restaurants and about 10 minute drive to the woodlands.  There is a couple of bars near the hotel too.The downside is that you can not walk anywhere, which is pretty general for around that area.  You will need a car, which is a shame as there are a lot nearby.  Would be great if there were walkways instead of driving all the time.The rooms are clean and spacious with the amenities that you require.  Comfortable beds.  There are some kitchen facilities in the rooms, however no cutlery, which is a little bizarre. They have a small gym, which has all the facilities that you need and can be quiet most of the time with it being open 24 hours, which is great.  There is a small pool area, which is nice.  An oasis in the middle of the I-45........MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel on two occasions both for business reasons.  The staff are welcoming and friendly.The hotel is on the I-45 so it is close to a lot of restaurants and about 10 minute drive to the woodlands.  There is a couple of bars near the hotel too.The downside is that you can not walk anywhere, which is pretty general for around that area.  You will need a car, which is a shame as there are a lot nearby.  Would be great if there were walkways instead of driving all the time.The rooms are clean and spacious with the amenities that you require.  Comfortable beds.  There are some kitchen facilities in the rooms, however no cutlery, which is a little bizarre. They have a small gym, which has all the facilities that you need and can be quiet most of the time with it being open 24 hours, which is great.  There is a small pool area, which is nice.  An oasis in the middle of the I-45........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r202882854-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>202882854</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Fantastic stay very close to The Woodlands</t>
+  </si>
+  <si>
+    <t>I recently stayed one night at the Farfield Inn in Spring, TX the night before a meeting in The Woodlands Waterway Place area.  The hotel location could not be beat.  It was right off of the highway and close to The Woodlands.  The hotel is brand new (I think the clerk said they've been open 8 months) and it shows.  The check-in was quick and friendly.  I found my room to be large, modern and super comfortable.  The decor is really nice and the room had a great spot to work, sit and then sleep.  The free wi-fi in the room was easy to use and fast.  In the morning, the shower was strong and powerful with plenty of hot water.  The free breakfast was basic, and similar to many other business class hotels, but it was fine.  The coffee was actually better than expected! Overall this was a great stay and I would stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed one night at the Farfield Inn in Spring, TX the night before a meeting in The Woodlands Waterway Place area.  The hotel location could not be beat.  It was right off of the highway and close to The Woodlands.  The hotel is brand new (I think the clerk said they've been open 8 months) and it shows.  The check-in was quick and friendly.  I found my room to be large, modern and super comfortable.  The decor is really nice and the room had a great spot to work, sit and then sleep.  The free wi-fi in the room was easy to use and fast.  In the morning, the shower was strong and powerful with plenty of hot water.  The free breakfast was basic, and similar to many other business class hotels, but it was fine.  The coffee was actually better than expected! Overall this was a great stay and I would stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r194209315-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>194209315</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel Stay</t>
+  </si>
+  <si>
+    <t>Excellent staff, wonderful room, awesome stay. Joel and Robert were very accommodating with every issue/need we had. Would stay here anytime I'm in Spring and recommend anyone passing through to check in.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r191717681-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>191717681</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Recent Stay</t>
+  </si>
+  <si>
+    <t>Nice new hotel (still has the "new" smell).  Check in was quick.  I stayed during the week, so noise level was down.  I did have a room that overlooked the highway so if that is a problem, ask for a room on the back side.  Breakfast was standard - they had scramble eggs and sausage patty.  If you're looking for a luxury hotel (sorry Fairfield is not in this class), this is not it, but if you are looking for a clean, inexpensive hotel to stay at, this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Slade V, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Nice new hotel (still has the "new" smell).  Check in was quick.  I stayed during the week, so noise level was down.  I did have a room that overlooked the highway so if that is a problem, ask for a room on the back side.  Breakfast was standard - they had scramble eggs and sausage patty.  If you're looking for a luxury hotel (sorry Fairfield is not in this class), this is not it, but if you are looking for a clean, inexpensive hotel to stay at, this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r177326709-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>177326709</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Staff, OK Stay</t>
+  </si>
+  <si>
+    <t>This was supposed to be a new hotel that opened in July 2013. I was a little confused about the wear and tear already present. For example, picture frames in the room with dents and scratches. That was odd. But, odder still, were dresser drawers with only a single pull on the right hand side. It was awkward opening the drawers in 224.Our room faced the interstate and was a bit noisy. I'd recommend a room on the back side.Also, because of the location, all trips had to begin by going south on the frontage road for about a mile before you could turn in another direction. That adds a bit of time for all trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Yvette S, Director of Sales at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded November 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2013</t>
+  </si>
+  <si>
+    <t>This was supposed to be a new hotel that opened in July 2013. I was a little confused about the wear and tear already present. For example, picture frames in the room with dents and scratches. That was odd. But, odder still, were dresser drawers with only a single pull on the right hand side. It was awkward opening the drawers in 224.Our room faced the interstate and was a bit noisy. I'd recommend a room on the back side.Also, because of the location, all trips had to begin by going south on the frontage road for about a mile before you could turn in another direction. That adds a bit of time for all trips.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1201,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1233,1976 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>157</v>
+      </c>
+      <c r="X17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>252</v>
+      </c>
+      <c r="X31" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>261</v>
+      </c>
+      <c r="X32" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_241.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_241.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r608574332-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>4605163</t>
+  </si>
+  <si>
+    <t>608574332</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>This hotel has declined in customer service.</t>
+  </si>
+  <si>
+    <t>The front desk staff was incredible however the management here was just plain rude. The General Manager walks around like he is the owner of the hotel and has no regard for the privacy of his guests. The breakfast here was ok and the cleanliness of the hotel was slightly below average. The front desk staff and sales team were phenomenal however I was catching some negative vibes from some of the employees probably in regards to how much there boss was hovering over their shoulders when they obviously were doing there job well as I had no complaints for their customer service. I've stayed here several times before though this hotel has been going through employees like a baby goes through diapers probably due to poor management. The customer base here is full of a lot of nosey and loud individuals. It's like it went from a business savvy hotel to a mediocre family mad house.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The front desk staff was incredible however the management here was just plain rude. The General Manager walks around like he is the owner of the hotel and has no regard for the privacy of his guests. The breakfast here was ok and the cleanliness of the hotel was slightly below average. The front desk staff and sales team were phenomenal however I was catching some negative vibes from some of the employees probably in regards to how much there boss was hovering over their shoulders when they obviously were doing there job well as I had no complaints for their customer service. I've stayed here several times before though this hotel has been going through employees like a baby goes through diapers probably due to poor management. The customer base here is full of a lot of nosey and loud individuals. It's like it went from a business savvy hotel to a mediocre family mad house.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r555432917-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>555432917</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Four night stay</t>
+  </si>
+  <si>
+    <t>This place is staffed by the nicest people ever! The rooms are clean and very comfortable. The breakfast is very good, it is a hot breakfast not continental. I cannot say enough about everyone who work here! The maid, the cook, the maintenance and all the desk clerks were helpful and gracious! They gave me an extra blanket (brought it to my room). Gave good directions and recommendations for where to eat. They don’t have coke products but the front desk clerk gave me a can of coke of her own! Super nice place and people.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r553066987-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>553066987</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Perfect business stop</t>
+  </si>
+  <si>
+    <t>Relatively new hotel that is on I45 and central to north Houston. The staff was extremely helpful, the common areas and room were all clean and fresh.  The room rate was reasonable and a bargain when you consider the service, convenience and cleanliness. I will be back on my next business trip.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r509700902-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>4605163</t>
-  </si>
-  <si>
     <t>509700902</t>
   </si>
   <si>
@@ -201,9 +261,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r482351011-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -219,30 +276,63 @@
     <t>Been here for a few days, rooms are large, WiFi fast, the gym OK. The hotel also has a micromarket where you can buy food, drinks and toiletry stuff. The only things I did not like much are the limited choice at breakfast, and that you don't have any place to eat at walking distance, which means you have to get the car and go up and down I45 to get some food. Traffic noise from the I45 is also a bit annoying  especially early in the morning, but I had a room facing it. May be those looking on the other side of the hotel are quiter</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r481090518-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481090518</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel - great price!</t>
+  </si>
+  <si>
+    <t>Hotel was very clean throughout.  Rooms and bathroom were spacious.  Beds were comfortable.  Staff very friendly.  Was missing a couple of the traditional amenities in the bathroom, but the staff was responsive and we immediately felt comfortable.  Will definitely stay here again</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r470402890-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>470402890</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Not Happy at All</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here this weekend. We were in town for the Bassmaster Classic. .We arriver on Friday evening around 930 pm and went to the room that faced the I 45 highway and to nose from the highway was loud and the noise in the halls was even louder. Went down to breakfast the next morning to find out that my truck along with 10 others had their windows broken out. Went to the desk after placing my police report and asked when did this happen and the lady at the desk said well obviously sometime last night. No I am sorry that this happened or sorry for your inconvenience or is their anything we can do to help in anyway. We woke up Sunday morning to find that the elevator was broken. I asked the same lady at the counter if it was and her reply was looks that way. I know that this lady has no control over these complaints but her customer service and communication skills SUXMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here this weekend. We were in town for the Bassmaster Classic. .We arriver on Friday evening around 930 pm and went to the room that faced the I 45 highway and to nose from the highway was loud and the noise in the halls was even louder. Went down to breakfast the next morning to find out that my truck along with 10 others had their windows broken out. Went to the desk after placing my police report and asked when did this happen and the lady at the desk said well obviously sometime last night. No I am sorry that this happened or sorry for your inconvenience or is their anything we can do to help in anyway. We woke up Sunday morning to find that the elevator was broken. I asked the same lady at the counter if it was and her reply was looks that way. I know that this lady has no control over these complaints but her customer service and communication skills SUXMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r470374047-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
     <t>470374047</t>
   </si>
   <si>
-    <t>03/26/2017</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
     <t>Was assured upon check in that they had on site security. My car plus 10 others were broken into the first night. The onsite security did not notify us. We were notified of the break ins by the sheriffs department, making a random sweep of the parking lot. They have cameras but not in the parking lot. We were offered no apologies for anything. Will NOT stay at this hotel ever again. Poor service and VERY lacked security in what is known to law enforcement as a very bad corridor.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded March 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 28, 2017</t>
-  </si>
-  <si>
     <t>Was assured upon check in that they had on site security. My car plus 10 others were broken into the first night. The onsite security did not notify us. We were notified of the break ins by the sheriffs department, making a random sweep of the parking lot. They have cameras but not in the parking lot. We were offered no apologies for anything. Will NOT stay at this hotel ever again. Poor service and VERY lacked security in what is known to law enforcement as a very bad corridor.More</t>
   </si>
   <si>
@@ -285,7 +375,52 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r380417671-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>380417671</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>One Night Stay - Room was Quiet</t>
+  </si>
+  <si>
+    <t>Had a quick one night stay and it met all the basic needs. AC was cold and room was quiet. Hotel is relatively new and is in good shape. Check-in was very easy and friendly. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r368146432-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>368146432</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>The hotel is clean and the staff friendly, the location is the only downfall</t>
+  </si>
+  <si>
+    <t>The hotel itself is a good representation of the Fairfield brand.  It is kept clean and the staff are friendly.  The location though is not in a great area.  I like a hotel where I can get out and take a jog when I feel like it, this location is not in an area where you would want to get out on foot.  If you just need a place to pull over and sleep, this is a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is a good representation of the Fairfield brand.  It is kept clean and the staff are friendly.  The location though is not in a great area.  I like a hotel where I can get out and take a jog when I feel like it, this location is not in an area where you would want to get out on foot.  If you just need a place to pull over and sleep, this is a good hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r363347766-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
@@ -303,9 +438,6 @@
     <t>This Fairfield is located in Spring right off of highway 45, on the service road. Easy access on and off the freeway. It appears to be a newer hotel. Nice bright and clean lobby. Front desk service was short and sweet. Modern elevators, short hallways and the room was more than spacious. The bathroom was big and bright and clean. The bed was comfortable. There was also a sofa and desk with chair. Being on the backside of the hotel my view was the parking lot of the apartments behind. Lots of lights and the A/C blew really cold.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r362067830-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -357,6 +489,45 @@
     <t>I am a Platinum customer at Marriott but I am getting tired to fight about their air conditioning being programed to turn off in the middle of the night or not having the constant fan option. This is my second night in this hotel this week. Last night I was surprised when I found out before going to sleep that the constant fan was not working. Since they don't have any maintenance personnel at night, I was promised that they were going to program the fan for the next night (today). Today the constant fan was running fine however, when I finally decided to turn down the air conditioning to sleep (since the room temp was 75 degrees) I was surprised to find out that I had the fan working but they defeated the air conditioning. So I had no other choice to put close on and change rooms at 11:00 PM. This is ridiculous!!!! Customers come to the hotels because they want to have a good night of sleep. I am so tired of fighting in 80% of the Marriott hotels about their HVAC that stop working or making noise in the middle of the night.Hilton nor Holliday Inn are not treating their guests like Marriott.  It is time to Marriott start listening to our guests!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r357916167-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>357916167</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel. Ask for an odd numbered room</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location between Houston International Airport and The Woodlands. Right off of 45. It was clean and looked to have been renovated recently as the decor was up to date. Staff was friendly and breakfast was good.Though convenient to 45, its almost too convenient. It is directly adjacent to the highway and near an on ramp. The even numbered rooms are on the highway side, its not a deafening noise but you do hear some noise, if you are a a light sleeper I would suggest an even numbered room as they face the rear of the hotel.But all in all a nice hotel, good breakfast and everything you would expect from the Fairfield Inn Brand. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, General Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location between Houston International Airport and The Woodlands. Right off of 45. It was clean and looked to have been renovated recently as the decor was up to date. Staff was friendly and breakfast was good.Though convenient to 45, its almost too convenient. It is directly adjacent to the highway and near an on ramp. The even numbered rooms are on the highway side, its not a deafening noise but you do hear some noise, if you are a a light sleeper I would suggest an even numbered room as they face the rear of the hotel.But all in all a nice hotel, good breakfast and everything you would expect from the Fairfield Inn Brand. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r357476240-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>357476240</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Get Away</t>
+  </si>
+  <si>
+    <t>Nothing bad to say about our stay, we enjoyed the room. Clean, housekeeping were available to freshen our towels. Front desk was very inviting and pleasant. I booked the room on Hotels.com and this made check in &amp; out a breeze. This was our first time and will be going back.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r356037757-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -411,6 +582,48 @@
     <t>This hotel is only within the delivery range of 4 or 5 restaurants from what I could tell, so for extended stays you might find yourself going out to eat and the roads get pretty crowded in Houston. However, you're right near the I45 (as implied by the address) so you can get pretty much anywhere in the city fairly easily.The hotel has excellent WiFi (good enough for streaming video!) and a decent sundry shop. Room came equipped with a nice fridge and microwave and was very comfortable. Nice bathroom and comfortable bed.Fairfield hotels are always very nice and I tend to prefer them so this one failed to disappoint. Plenty of free parking as well and very attentive staff. Definitely would stay here again if coming on business because it's a little cheaper than staying closer to the center of the city but you're still pretty centrally located for all intents and purposes.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r348615425-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>348615425</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Way to go Fairfield!!</t>
+  </si>
+  <si>
+    <t>This was a newer Fairfield Inn &amp; Suites and I was pleasantly surprised by the comfortable room and nice amenities it offered. This was the best Fairfield I have stayed in. The fitness room was larger than most and well kept. The breakfast area had a nice variety of selections with comfortable seating. They even have a manager's reception one night a week of some of the finer restaurants in town. Our company had a meeting for 2 days there and the hotel catered the luncheon and it was delicious. Great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>This was a newer Fairfield Inn &amp; Suites and I was pleasantly surprised by the comfortable room and nice amenities it offered. This was the best Fairfield I have stayed in. The fitness room was larger than most and well kept. The breakfast area had a nice variety of selections with comfortable seating. They even have a manager's reception one night a week of some of the finer restaurants in town. Our company had a meeting for 2 days there and the hotel catered the luncheon and it was delicious. Great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r343873860-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>343873860</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Good stay!</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights for a business trip.  Hotel is quite new and rooms are clean and comfortable.  I requested a quiet room away from the freeway side.  Breakfast is good with eggs, waffles, fruit, yogurt, etc.  Front desk staff are friendly and efficient.  Easy to get on and off I-45.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r323757935-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -471,6 +684,42 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r289243828-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>289243828</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Great meeting place and wonderful rooms</t>
+  </si>
+  <si>
+    <t>Clean, great rates and place to stay.  Being right on the feeder street make it easy on and easy off for the freeway.  We had a group  with 10 rooms and no complaints.  We had a gathering at night in the breakfast area and it worked out fine.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r283685009-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>283685009</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Clean and New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were there for two nights and loved it since we checked in. The hotel is very clean and brand new. Rooms facing the highway can be noisy because of traffic so request a room in the back. We turned on the ac fan and that muffled traffic sound. Breakfast was included and  had a variety of fruit, cereals, eggs and sausage. I liked that it was close to many nice restaurants (10 min. drive) and to the shopping mall. For the price and location, I would go back. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r274500134-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -549,6 +798,57 @@
     <t>Our family 4 of us 3 year old and 5 year old spent a couple nights here.  We had a friend of ours with us and we thought we were getting a two bedroom suite but really it was a two bed suite with a small partition between the sleeper sofa and the beds.The bathroom and shower area are separated and non lockable doors.  The doors also have transparent frosted glass so when you get up to go to the bathroom at night it illuminated the whole room practically.  Looks great as far as design but not practical.The buffet style breakfast that's free is a little better than most continental breakfast.  There is a fridge in the rooms no freezer and a microwave and coffee maker.Staff is friendly and accommodating and allowed us to have a late night checkout.  They also have an exhaustive list of restaurants in the area if you ask for it at the front desk.I would stay here again just not with friends and my family due to the privacy issue.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r254398012-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>254398012</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable enough</t>
+  </si>
+  <si>
+    <t>I can't give a 2 1/2 star hotel more than a 3/5 score, but this one earned the most it could by me, zero negatives.  The room was clean, the staff was great, the location is easy on/off I-45 and that's all I could ask for, at a reasonable price.  The hotel was pretty full but there was still room in the parking lot to find a space.  I know there is a pool and also the fitness center (not that I use it) was big.  Big social space in the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Robert G, General Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>I can't give a 2 1/2 star hotel more than a 3/5 score, but this one earned the most it could by me, zero negatives.  The room was clean, the staff was great, the location is easy on/off I-45 and that's all I could ask for, at a reasonable price.  The hotel was pretty full but there was still room in the parking lot to find a space.  I know there is a pool and also the fitness center (not that I use it) was big.  Big social space in the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r253885375-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>253885375</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>The pictures online are misleading. They make the hotel seem much nicer than it is. Our room was located on the highway side which was extremely noisy starting early in the morning. There was a strange smell in our room that could have been from a previous smoker even though room said non- smoking. When we first entered, the room was freezing! After adjusting the thermostat and getting the room to a normal temperature, I realized that the air may have been so high to try to get rid of (or cover up) the horrible smell. Also the water from the tap tasted and smelled bad. The cups were plastic and shampoo, conditioner, etc just seemed cheap. The breakfast wasn't very impressive either. I will say that the employees at the front desk were very friendly and welcoming. The room was also a good size and bathroom had two large drawers for toiletries. We checked out of this hotel after one night and moved to the Courtyard Marriott at The Woodlands. So far this hotel has been fine!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Manager at Fairfield Inn &amp; Suites Houston North/Spring, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>The pictures online are misleading. They make the hotel seem much nicer than it is. Our room was located on the highway side which was extremely noisy starting early in the morning. There was a strange smell in our room that could have been from a previous smoker even though room said non- smoking. When we first entered, the room was freezing! After adjusting the thermostat and getting the room to a normal temperature, I realized that the air may have been so high to try to get rid of (or cover up) the horrible smell. Also the water from the tap tasted and smelled bad. The cups were plastic and shampoo, conditioner, etc just seemed cheap. The breakfast wasn't very impressive either. I will say that the employees at the front desk were very friendly and welcoming. The room was also a good size and bathroom had two large drawers for toiletries. We checked out of this hotel after one night and moved to the Courtyard Marriott at The Woodlands. So far this hotel has been fine!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r248286276-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -612,6 +912,39 @@
     <t>My mother &amp; I stayed here for one night. A relative used his points for the room so I can't compare quality to the price. We arrived early and they allowed us to check in. We had two queen beds. The room was just the right size and very clean. Many channels available on the TV. Our room faced I-45 so there was traffic noise except for late at night after it died down. It really didn't bother us tho. The other side faces apartments. We always had a good wifi signal. The breakfast was good/average--eggs, sausage, waffles, cereal, breads, yogurt, etc. The location is very convenient to The Woodlands--shopping, eating, and entertainment. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r240380913-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>240380913</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>New But Not So new</t>
+  </si>
+  <si>
+    <t>This is a fairly new property however the poor quality of construction materials is noticeable.It's aging for being so new. Handle on the dresser loose and could not open the drawer.Not real sure why Marriott properties are going with these ultra-soft pillows that basically go flat when you use them, likely price versus quality driven. We have experienced this at numerous Marriott brands. The bed was not comfortable for me, I prefer a firmer mattress and I did not sleep well between the bed an the pillows, it was very uncomfortable for me. The front desk was professional and quickly checked us in.Hot tub broken but it was cold outside anyhow so not a real big disappointment but had it been better weather we would have been disappointed.Heater in room was hard to find the comfort zone, it was set to 75 and blew cold air or we set it to 76 and it got too warm.Location is good access to 45 and The Woodlands.Entrance/exit does not seem complete with tape up and cement missing.The hotel itself is fine but just seems to be built of cheap materials.There is constant road noise due to the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a fairly new property however the poor quality of construction materials is noticeable.It's aging for being so new. Handle on the dresser loose and could not open the drawer.Not real sure why Marriott properties are going with these ultra-soft pillows that basically go flat when you use them, likely price versus quality driven. We have experienced this at numerous Marriott brands. The bed was not comfortable for me, I prefer a firmer mattress and I did not sleep well between the bed an the pillows, it was very uncomfortable for me. The front desk was professional and quickly checked us in.Hot tub broken but it was cold outside anyhow so not a real big disappointment but had it been better weather we would have been disappointed.Heater in room was hard to find the comfort zone, it was set to 75 and blew cold air or we set it to 76 and it got too warm.Location is good access to 45 and The Woodlands.Entrance/exit does not seem complete with tape up and cement missing.The hotel itself is fine but just seems to be built of cheap materials.There is constant road noise due to the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r237452496-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>237452496</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>New clean hotel, useful</t>
+  </si>
+  <si>
+    <t>Nice new hotel, great for meetings I came for nearby.Amazing and personal welcome from John.Pretty descent warm breakfast with eggs and bacon and sausages with cereals.Very comfortable room with basic features and wide TV selection.Internet was a bit iffy.All in all, a very pleasant stay and will certainly return if I have business in the area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r232667605-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -663,6 +996,50 @@
     <t>We spent one night at the Fairfield.  Very clean and accommodating.  There are a lot of business customers.  The freeway side of the hotel picks up quite a bit of freeway noise.  The staff is very good and helpful.  Breakfast was good and had a good range of alternatives.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r226530940-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>226530940</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>This place is a must!</t>
+  </si>
+  <si>
+    <t>It is only a year old and still smells, looks, and feels brand new.  An extremely courteous staff will greet you.  I only use Marriott brands and have stayed in some awesome properties across the country...  This is THE cleanest Marriott property I've seen.  There is a Starbucks right down the road if you need fancier go juice.  Plenty of restaurants around here, as well.  Save a few bucks and enjoy a great nights sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r225164806-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>225164806</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Good for a one night stay...</t>
+  </si>
+  <si>
+    <t>On a business trip to The Woodlands, and need a place to stay for the night.  Found this online, and thought of giving this place a chance, it was reasonably priced, compared to the other chains around the Woodlands Mall. 
+Check in was great... easy to find (Oh, just FYI... on the map here on TripAdvisor, shows this property on the East of the highway, which is incorrect, the property is on the WEST side of the highway.) easy on and off the access road and close entry to the highway for both southbound and northbound.  John at the front desk was great for a late night check in...
+I was given the 1 bedroom suite.  So much room, hardly used it, but it was ok if you had kids and a place to stretch out without bumping into each other.  there was a kitchen-et, with sink, small stove top, a small fridge, and a microwave.  With no utensils, dishes, or pots / pans, sorta made the area a waste of space (not sure if the hotel provides these items, I did not inquire) 
+the Bed was ok... pillows were all synthetic... 
+I had room 201. nice room, on the back corner of the property, but will tell you that starting at 5:30 AM, you can hear the build up of traffic on the highway, even though you were not facing it. So bring ear plugs if you want to...On a business trip to The Woodlands, and need a place to stay for the night.  Found this online, and thought of giving this place a chance, it was reasonably priced, compared to the other chains around the Woodlands Mall. Check in was great... easy to find (Oh, just FYI... on the map here on TripAdvisor, shows this property on the East of the highway, which is incorrect, the property is on the WEST side of the highway.) easy on and off the access road and close entry to the highway for both southbound and northbound.  John at the front desk was great for a late night check in...I was given the 1 bedroom suite.  So much room, hardly used it, but it was ok if you had kids and a place to stretch out without bumping into each other.  there was a kitchen-et, with sink, small stove top, a small fridge, and a microwave.  With no utensils, dishes, or pots / pans, sorta made the area a waste of space (not sure if the hotel provides these items, I did not inquire) the Bed was ok... pillows were all synthetic... I had room 201. nice room, on the back corner of the property, but will tell you that starting at 5:30 AM, you can hear the build up of traffic on the highway, even though you were not facing it. So bring ear plugs if you want to sleep in. Breakfast was provided, standard danish, breads, variety of fruits, patty sausage and scrambled eggs.  They also have Oatmeal and Yogurt.  Plus batter and a waffle iron...  Coffee was good... never heard of the blend, but it was good. Parking was easy, plenty of spaces.  I knew there was a pool and exercise room, but I had no time to try and use those facilities. would I stay here again: sure, I will bring ear plugs :) and ask for down pillows ... only 10 min from the hotel with no traffic to the Woodlands Mall ... with traffic, plan on 20-30 min or take the back way into the Woodlands.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>On a business trip to The Woodlands, and need a place to stay for the night.  Found this online, and thought of giving this place a chance, it was reasonably priced, compared to the other chains around the Woodlands Mall. 
+Check in was great... easy to find (Oh, just FYI... on the map here on TripAdvisor, shows this property on the East of the highway, which is incorrect, the property is on the WEST side of the highway.) easy on and off the access road and close entry to the highway for both southbound and northbound.  John at the front desk was great for a late night check in...
+I was given the 1 bedroom suite.  So much room, hardly used it, but it was ok if you had kids and a place to stretch out without bumping into each other.  there was a kitchen-et, with sink, small stove top, a small fridge, and a microwave.  With no utensils, dishes, or pots / pans, sorta made the area a waste of space (not sure if the hotel provides these items, I did not inquire) 
+the Bed was ok... pillows were all synthetic... 
+I had room 201. nice room, on the back corner of the property, but will tell you that starting at 5:30 AM, you can hear the build up of traffic on the highway, even though you were not facing it. So bring ear plugs if you want to...On a business trip to The Woodlands, and need a place to stay for the night.  Found this online, and thought of giving this place a chance, it was reasonably priced, compared to the other chains around the Woodlands Mall. Check in was great... easy to find (Oh, just FYI... on the map here on TripAdvisor, shows this property on the East of the highway, which is incorrect, the property is on the WEST side of the highway.) easy on and off the access road and close entry to the highway for both southbound and northbound.  John at the front desk was great for a late night check in...I was given the 1 bedroom suite.  So much room, hardly used it, but it was ok if you had kids and a place to stretch out without bumping into each other.  there was a kitchen-et, with sink, small stove top, a small fridge, and a microwave.  With no utensils, dishes, or pots / pans, sorta made the area a waste of space (not sure if the hotel provides these items, I did not inquire) the Bed was ok... pillows were all synthetic... I had room 201. nice room, on the back corner of the property, but will tell you that starting at 5:30 AM, you can hear the build up of traffic on the highway, even though you were not facing it. So bring ear plugs if you want to sleep in. Breakfast was provided, standard danish, breads, variety of fruits, patty sausage and scrambled eggs.  They also have Oatmeal and Yogurt.  Plus batter and a waffle iron...  Coffee was good... never heard of the blend, but it was good. Parking was easy, plenty of spaces.  I knew there was a pool and exercise room, but I had no time to try and use those facilities. would I stay here again: sure, I will bring ear plugs :) and ask for down pillows ... only 10 min from the hotel with no traffic to the Woodlands Mall ... with traffic, plan on 20-30 min or take the back way into the Woodlands.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r216478370-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -717,6 +1094,39 @@
     <t>I have stayed at this hotel on two occasions both for business reasons.  The staff are welcoming and friendly.The hotel is on the I-45 so it is close to a lot of restaurants and about 10 minute drive to the woodlands.  There is a couple of bars near the hotel too.The downside is that you can not walk anywhere, which is pretty general for around that area.  You will need a car, which is a shame as there are a lot nearby.  Would be great if there were walkways instead of driving all the time.The rooms are clean and spacious with the amenities that you require.  Comfortable beds.  There are some kitchen facilities in the rooms, however no cutlery, which is a little bizarre. They have a small gym, which has all the facilities that you need and can be quiet most of the time with it being open 24 hours, which is great.  There is a small pool area, which is nice.  An oasis in the middle of the I-45........More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r210992068-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>210992068</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Nice front desk, clean, comfortable beds and very convenient to the Cynthia Woods Mitchell Pavillion and restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would stay again. I met my sorority sisters for dinner and a concert in the Woodlands. The front desk was very nice and accommodating. The hotel is super clean and the beds are very comfortable. Slept great!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r208891042-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>208891042</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>SUPERIOR FAIRFIELD INN</t>
+  </si>
+  <si>
+    <t>We only stay in Marriott properties and we are Platinum status so we have lots of expereince to compare to.  This Fairfield Inn is extremely high quality with particularly friendly staff.  The rooms are very spacious with extremely comfortable beds and bedding with huge flat screen TV's and DIrect TV.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r202882854-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -781,6 +1191,51 @@
   </si>
   <si>
     <t>Nice new hotel (still has the "new" smell).  Check in was quick.  I stayed during the week, so noise level was down.  I did have a room that overlooked the highway so if that is a problem, ask for a room on the back side.  Breakfast was standard - they had scramble eggs and sausage patty.  If you're looking for a luxury hotel (sorry Fairfield is not in this class), this is not it, but if you are looking for a clean, inexpensive hotel to stay at, this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r188322655-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>188322655</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Rowdie WeekEnds</t>
+  </si>
+  <si>
+    <t>Most travelers know that Fairfields are known for their low budget family packedweekends.  This was no exception.Noise and loud door-banging adults and children on all floors.Hard to believe...the original FAIRFIELD was a quiet manor house usedby the Marriott Family. So much for a name!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r187436784-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>187436784</t>
+  </si>
+  <si>
+    <t>12/12/2013</t>
+  </si>
+  <si>
+    <t>Nice, new, clean hotel between The Woodlands and IAH</t>
+  </si>
+  <si>
+    <t>I booked the Fairfield Inn &amp; Suites Houston The Woodlands South by mistake thinking it was located north of The Woodlands at I-45 and 242.  The item I missed was the clear designation of South in the name which is the same on TripAdvisor and the Marriott site.  The address for the hotel was not accurate to my ATT phone so it took a few tries to find the hotel.  I reported the correction to ATT and hopefully it will help others find the hotel quicker.  The directions on the Marriott site are good.
+The hotel appeared to be new, less than 1 year for sure, with a bright entrance, lobby breakfast and reception area.  There are food and snacks available for purchase which worked out well for my midnight snack.
+The clerks were very polite and had my information pre-printed which expedited the check-in process.  The elevator was nice but the ding that announced passing each floor sounded like a painful gong on a blown speaker.  There is probably a better tone that can be selected then next time it is serviced.
+The rooms were nicely appointed with large flat screen with many channels for viewing, a well lit work area and desk, nice vanity area outside of the shower and toilet, reading lights on the headboard, and iPod/iPhone clock with charger. There was a microwave and mini-fridge as well.  As a frequent traveler, I liked the layout and...I booked the Fairfield Inn &amp; Suites Houston The Woodlands South by mistake thinking it was located north of The Woodlands at I-45 and 242.  The item I missed was the clear designation of South in the name which is the same on TripAdvisor and the Marriott site.  The address for the hotel was not accurate to my ATT phone so it took a few tries to find the hotel.  I reported the correction to ATT and hopefully it will help others find the hotel quicker.  The directions on the Marriott site are good.The hotel appeared to be new, less than 1 year for sure, with a bright entrance, lobby breakfast and reception area.  There are food and snacks available for purchase which worked out well for my midnight snack.The clerks were very polite and had my information pre-printed which expedited the check-in process.  The elevator was nice but the ding that announced passing each floor sounded like a painful gong on a blown speaker.  There is probably a better tone that can be selected then next time it is serviced.The rooms were nicely appointed with large flat screen with many channels for viewing, a well lit work area and desk, nice vanity area outside of the shower and toilet, reading lights on the headboard, and iPod/iPhone clock with charger. There was a microwave and mini-fridge as well.  As a frequent traveler, I liked the layout and set up of the room.  My room was on the I-45 side so there was a bit of road noise most of the night.  The fan drowned out most of the sound and ear plugs took care of the rest.  There are dozens if not hundreds of restaurants within a couple of miles of the hotel so you should not have any issue in finding one that meets your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I booked the Fairfield Inn &amp; Suites Houston The Woodlands South by mistake thinking it was located north of The Woodlands at I-45 and 242.  The item I missed was the clear designation of South in the name which is the same on TripAdvisor and the Marriott site.  The address for the hotel was not accurate to my ATT phone so it took a few tries to find the hotel.  I reported the correction to ATT and hopefully it will help others find the hotel quicker.  The directions on the Marriott site are good.
+The hotel appeared to be new, less than 1 year for sure, with a bright entrance, lobby breakfast and reception area.  There are food and snacks available for purchase which worked out well for my midnight snack.
+The clerks were very polite and had my information pre-printed which expedited the check-in process.  The elevator was nice but the ding that announced passing each floor sounded like a painful gong on a blown speaker.  There is probably a better tone that can be selected then next time it is serviced.
+The rooms were nicely appointed with large flat screen with many channels for viewing, a well lit work area and desk, nice vanity area outside of the shower and toilet, reading lights on the headboard, and iPod/iPhone clock with charger. There was a microwave and mini-fridge as well.  As a frequent traveler, I liked the layout and...I booked the Fairfield Inn &amp; Suites Houston The Woodlands South by mistake thinking it was located north of The Woodlands at I-45 and 242.  The item I missed was the clear designation of South in the name which is the same on TripAdvisor and the Marriott site.  The address for the hotel was not accurate to my ATT phone so it took a few tries to find the hotel.  I reported the correction to ATT and hopefully it will help others find the hotel quicker.  The directions on the Marriott site are good.The hotel appeared to be new, less than 1 year for sure, with a bright entrance, lobby breakfast and reception area.  There are food and snacks available for purchase which worked out well for my midnight snack.The clerks were very polite and had my information pre-printed which expedited the check-in process.  The elevator was nice but the ding that announced passing each floor sounded like a painful gong on a blown speaker.  There is probably a better tone that can be selected then next time it is serviced.The rooms were nicely appointed with large flat screen with many channels for viewing, a well lit work area and desk, nice vanity area outside of the shower and toilet, reading lights on the headboard, and iPod/iPhone clock with charger. There was a microwave and mini-fridge as well.  As a frequent traveler, I liked the layout and set up of the room.  My room was on the I-45 side so there was a bit of road noise most of the night.  The fan drowned out most of the sound and ear plugs took care of the rest.  There are dozens if not hundreds of restaurants within a couple of miles of the hotel so you should not have any issue in finding one that meets your needs.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d4605163-r177326709-Fairfield_Inn_Suites_Houston_North_Spring-Spring_Texas.html</t>
@@ -1342,7 +1797,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1350,18 +1805,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1468,7 +1917,7 @@
         <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1519,31 +1968,33 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1559,54 +2010,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1622,34 +2067,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1663,7 +2108,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1679,41 +2124,41 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
       </c>
       <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1724,7 +2169,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1740,48 +2185,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1797,34 +2250,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" t="s">
-        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1836,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +2311,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1867,35 +2320,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1903,7 +2358,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1919,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1928,45 +2383,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1982,7 +2431,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1991,16 +2440,16 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2009,16 +2458,16 @@
         <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2029,7 +2478,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2045,48 +2494,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
         <v>131</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>132</v>
       </c>
-      <c r="J14" t="s">
+      <c r="X14" t="s">
         <v>133</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Y14" t="s">
         <v>134</v>
-      </c>
-      <c r="L14" t="s">
-        <v>135</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>136</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -2102,42 +2561,40 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
         <v>139</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>143</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2149,7 +2606,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -2165,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2174,43 +2631,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2226,58 +2679,52 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
         <v>151</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>152</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>153</v>
       </c>
-      <c r="K17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>156</v>
-      </c>
       <c r="O17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2293,35 +2740,31 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
         <v>160</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>161</v>
       </c>
-      <c r="J18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s">
-        <v>164</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18" t="s">
-        <v>89</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2332,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -2354,31 +2797,35 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
         <v>169</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s">
-        <v>173</v>
-      </c>
       <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2388,14 +2835,10 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>174</v>
-      </c>
-      <c r="X19" t="s">
-        <v>175</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -2411,7 +2854,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2420,49 +2863,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>182</v>
-      </c>
-      <c r="X20" t="s">
-        <v>183</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -2478,7 +2915,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2487,32 +2924,34 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>4</v>
       </c>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2523,7 +2962,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2539,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2548,32 +2987,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2584,7 +3025,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -2600,7 +3041,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2609,39 +3050,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" t="s">
+        <v>194</v>
+      </c>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -2657,7 +3106,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2666,35 +3115,35 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2702,7 +3151,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -2718,7 +3167,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2727,26 +3176,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>203</v>
-      </c>
-      <c r="O25" t="s">
-        <v>89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
@@ -2756,10 +3201,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -2775,40 +3224,42 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>215</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>216</v>
-      </c>
-      <c r="J26" t="s">
-        <v>217</v>
-      </c>
-      <c r="K26" t="s">
-        <v>218</v>
-      </c>
-      <c r="L26" t="s">
-        <v>219</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>220</v>
-      </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2820,7 +3271,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -2836,7 +3287,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2845,37 +3296,35 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
       <c r="P27" t="n">
         <v>4</v>
       </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2883,7 +3332,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -2899,43 +3348,41 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>228</v>
-      </c>
-      <c r="J28" t="s">
-        <v>229</v>
-      </c>
-      <c r="K28" t="s">
-        <v>230</v>
-      </c>
-      <c r="L28" t="s">
-        <v>231</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>220</v>
-      </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -2946,7 +3393,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
@@ -2962,58 +3409,48 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>233</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" t="s">
-        <v>235</v>
-      </c>
-      <c r="K29" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" t="s">
-        <v>237</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>238</v>
       </c>
       <c r="O29" t="s">
         <v>61</v>
       </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -3029,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3038,39 +3475,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>240</v>
+      </c>
+      <c r="X30" t="s">
+        <v>241</v>
+      </c>
       <c r="Y30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -3086,31 +3533,31 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>244</v>
+      </c>
+      <c r="J31" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" t="s">
         <v>246</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>247</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>248</v>
-      </c>
-      <c r="K31" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" t="s">
-        <v>250</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>251</v>
       </c>
       <c r="O31" t="s">
         <v>61</v>
@@ -3125,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -3147,62 +3594,1491 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
         <v>255</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>256</v>
       </c>
-      <c r="J32" t="s">
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>257</v>
       </c>
-      <c r="K32" t="s">
+      <c r="X32" t="s">
         <v>258</v>
       </c>
-      <c r="L32" t="s">
+      <c r="Y32" t="s">
         <v>259</v>
       </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="O32" t="s">
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
         <v>53</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>266</v>
+      </c>
+      <c r="X33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>270</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+      <c r="K34" t="s">
+        <v>272</v>
+      </c>
+      <c r="L34" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>265</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>274</v>
+      </c>
+      <c r="X34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>261</v>
-      </c>
-      <c r="X32" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>263</v>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>291</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s">
+        <v>318</v>
+      </c>
+      <c r="L41" t="s">
+        <v>319</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>320</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s">
+        <v>324</v>
+      </c>
+      <c r="L42" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>327</v>
+      </c>
+      <c r="J43" t="s">
+        <v>328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="L43" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>314</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
+      </c>
+      <c r="J44" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" t="s">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s">
+        <v>335</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>336</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s">
+        <v>341</v>
+      </c>
+      <c r="L45" t="s">
+        <v>342</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>343</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>353</v>
+      </c>
+      <c r="L47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>357</v>
+      </c>
+      <c r="J48" t="s">
+        <v>358</v>
+      </c>
+      <c r="K48" t="s">
+        <v>359</v>
+      </c>
+      <c r="L48" t="s">
+        <v>360</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J49" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" t="s">
+        <v>364</v>
+      </c>
+      <c r="L49" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>379</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K52" t="s">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>385</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>386</v>
+      </c>
+      <c r="X52" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" t="s">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>396</v>
+      </c>
+      <c r="J54" t="s">
+        <v>397</v>
+      </c>
+      <c r="K54" t="s">
+        <v>398</v>
+      </c>
+      <c r="L54" t="s">
+        <v>399</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>400</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>61833</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>408</v>
+      </c>
+      <c r="X55" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
